--- a/spliced/walkingToRunning/2023-03-26_17-11-18/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-26_17-11-18/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.8973521590232849</v>
+        <v>-1.109872460365295</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1004677563905716</v>
+        <v>1.229648113250732</v>
       </c>
       <c r="C2" t="n">
-        <v>1.17305588722229</v>
+        <v>2.535529136657715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.6182528734207153</v>
+        <v>-0.0105194868519902</v>
       </c>
       <c r="B3" t="n">
-        <v>1.669069647789002</v>
+        <v>0.2277668565511703</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8818392157554626</v>
+        <v>1.795702934265137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.658749938011169</v>
+        <v>-0.8973521590232849</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.585313200950623</v>
+        <v>0.1004677563905716</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.374025344848633</v>
+        <v>1.17305588722229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.416685581207275</v>
+        <v>-0.6182528734207153</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.322476148605347</v>
+        <v>1.669069647789002</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.666474342346191</v>
+        <v>-0.8818392157554626</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.654488801956177</v>
+        <v>1.658749938011169</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.7259281873703</v>
+        <v>-1.585313200950623</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.852646350860596</v>
+        <v>-3.374025344848633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.016163110733032</v>
+        <v>2.416685581207275</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.968842506408691</v>
+        <v>-2.322476148605347</v>
       </c>
       <c r="C7" t="n">
-        <v>3.157110929489136</v>
+        <v>-5.666474342346191</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.865745544433594</v>
+        <v>1.654488801956177</v>
       </c>
       <c r="B8" t="n">
-        <v>2.865894317626953</v>
+        <v>-1.7259281873703</v>
       </c>
       <c r="C8" t="n">
-        <v>8.381167411804199</v>
+        <v>-6.852646350860596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.1431449055671692</v>
+        <v>-3.016163110733032</v>
       </c>
       <c r="B9" t="n">
-        <v>12.14008617401123</v>
+        <v>-3.968842506408691</v>
       </c>
       <c r="C9" t="n">
-        <v>1.953362107276917</v>
+        <v>3.157110929489136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.818324089050293</v>
+        <v>-5.865745544433594</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.334262371063232</v>
+        <v>2.865894317626953</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.150319814682007</v>
+        <v>8.381167411804199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.644504547119141</v>
+        <v>-0.1431449055671692</v>
       </c>
       <c r="B11" t="n">
-        <v>3.98388934135437</v>
+        <v>12.14008617401123</v>
       </c>
       <c r="C11" t="n">
-        <v>0.539756178855896</v>
+        <v>1.953362107276917</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.38767409324646</v>
+        <v>4.818324089050293</v>
       </c>
       <c r="B12" t="n">
-        <v>3.137536764144897</v>
+        <v>-6.334262371063232</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.873384952545166</v>
+        <v>-3.150319814682007</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-5.203151226043701</v>
+        <v>9.644504547119141</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9888983368873596</v>
+        <v>3.98388934135437</v>
       </c>
       <c r="C13" t="n">
-        <v>2.413556337356567</v>
+        <v>0.539756178855896</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-13.87813186645508</v>
+        <v>3.38767409324646</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5345630049705505</v>
+        <v>3.137536764144897</v>
       </c>
       <c r="C14" t="n">
-        <v>0.425772875547409</v>
+        <v>-4.873384952545166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.411143779754639</v>
+        <v>-5.203151226043701</v>
       </c>
       <c r="B15" t="n">
-        <v>-7.761183738708496</v>
+        <v>0.9888983368873596</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.545782327651977</v>
+        <v>2.413556337356567</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.374074935913086</v>
+        <v>-13.87813186645508</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.723265051841736</v>
+        <v>0.5345630049705505</v>
       </c>
       <c r="C16" t="n">
-        <v>1.63484799861908</v>
+        <v>0.425772875547409</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.5457181930542</v>
+        <v>5.411143779754639</v>
       </c>
       <c r="B17" t="n">
-        <v>8.709402084350586</v>
+        <v>-7.761183738708496</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.038965702056885</v>
+        <v>-2.545782327651977</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.5905559659004211</v>
+        <v>2.374074935913086</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.791441917419434</v>
+        <v>-1.723265051841736</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2574611008167267</v>
+        <v>1.63484799861908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-3.922703266143799</v>
+        <v>10.5457181930542</v>
       </c>
       <c r="B19" t="n">
-        <v>3.348459005355835</v>
+        <v>8.709402084350586</v>
       </c>
       <c r="C19" t="n">
-        <v>1.719536542892456</v>
+        <v>-1.038965702056885</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-12.29035568237305</v>
+        <v>-0.5905559659004211</v>
       </c>
       <c r="B20" t="n">
-        <v>-13.32346248626709</v>
+        <v>-1.791441917419434</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.019326210021973</v>
+        <v>0.2574611008167267</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-3.922703266143799</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.348459005355835</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.719536542892456</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-12.29035568237305</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-13.32346248626709</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-5.019326210021973</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>4.287290096282959</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>-8.83603572845459</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>-1.076782584190369</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.13570511341095</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-4.037551879882812</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.869738817214966</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6.204765796661377</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.688312530517578</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.246159672737122</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-2.400972843170166</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.221409320831299</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4785034656524658</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-4.018577098846436</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.744737386703491</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.383230209350586</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-5.831124305725098</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10.37174797058106</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.6757105588912964</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.996954381465912</v>
+      </c>
+      <c r="B29" t="n">
+        <v>15.63681697845459</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-8.430303573608398</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5.841510772705078</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-9.827264785766602</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.761781692504883</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.826529026031494</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.439255952835083</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.031126499176025</v>
       </c>
     </row>
   </sheetData>
